--- a/output/fit_clients/fit_round_55.xlsx
+++ b/output/fit_clients/fit_round_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7642799872.958624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003781557929490508</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.154100860742719</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9570416925772532</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.154100860742719</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5671298726.285159</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005979058931880539</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.923576534341541</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9320088768384593</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.923576534341541</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6530493718.0573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003420465190530849</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01282245704105328</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.383815308176057</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.3479887521837677</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.383815308176057</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4566296907.364399</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00421141974124762</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.848347859252682</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8536931275545048</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.848347859252682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6132951044.377092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002683877053268377</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.493817170094824</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8678789223722082</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.493817170094824</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5923972726.996049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001029121776876505</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.800466267132053</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.929048090982126</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.800466267132053</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4841120086.980321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003220766896291165</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.559170256231267</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9713288614428707</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.559170256231267</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4282406436.787565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00407761412039181</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.518629334635468</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9268237391835308</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.518629334635468</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3353268620.714129</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00460752980853936</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.920139410363226</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9610155723599029</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.920139410363226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4910950422.880442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001488716810047628</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.633824700122153</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.672720236044256</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8517527370130213</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.672720236044256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7282388387.667019</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001320494158055097</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.742848674578909</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.022180401563842</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.742848674578909</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5867679197.549543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003776840118107401</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.603395960432954</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.030141650025221</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.603395960432954</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8491528306.392653</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003351736859787525</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.232023304480389</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9127969633742354</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.232023304480389</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7575427385.136791</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004230350014106036</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.344838998765514</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9940801682745808</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.344838998765514</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7502382402.524479</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005471056421553431</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.15324045007537</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9213074859060421</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.15324045007537</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6029236201.278457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003088662334541684</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.345876107193847</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9630212234052939</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.345876107193847</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5900939279.810213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001185819687546055</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8351540871646421</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.880578907752696</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.189978289536496</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.880578907752696</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3948976926.847268</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001639506241541931</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.837590897563189</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9176115610475341</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.837590897563189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5102730921.314979</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001036180997900283</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.587772093792518</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8545022149406957</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.587772093792518</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5955628980.519129</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005421495905991024</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.893421287588042</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8623082516747711</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.893421287588042</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4372228725.421472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003652118275630717</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5278090484760828</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.935279369740166</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7734972137900155</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.935279369740166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6890883570.924062</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001487640616651585</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.3435218578537</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8506742585459658</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.3435218578537</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7152982011.348743</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004101165335076382</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.348117397334971</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.010524994253603</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.348117397334971</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7299235970.031439</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002650240480829471</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.846921481897998</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.486984698415582</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.190266223699112</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.486984698415582</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4185096371.516347</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001235102271218158</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.466682365141605</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8214056212310243</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.466682365141605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6790861821.447612</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003590530053757289</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.751644074895171</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9283555568246828</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.751644074895171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6574032905.854406</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004299612926343057</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.976040085481884</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9113866717286871</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.976040085481884</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7706553239.454012</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001270580131290385</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.346383250315747</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9989641874375983</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.346383250315747</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6181133350.314847</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003495715582641278</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.954383931253488</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9155587334473915</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.954383931253488</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5366514001.825867</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002937095313451432</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.800885247430446</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9673478506981388</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.800885247430446</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4754251083.358088</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001138536153789277</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.528242967312213</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.962353137501387</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.528242967312213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5331116632.848658</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002051800527334292</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.520728237626652</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8684647223322416</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.520728237626652</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6408084121.211304</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005168639205977496</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.388256401849906</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7832986410654909</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.388256401849906</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5216794134.923396</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002495425059137404</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.943157459073874</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9354017105086556</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.943157459073874</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7347447597.403662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002433112648257018</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.237762497391203</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.03937241809742</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.237762497391203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5445093914.61858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004717806189784184</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.004832697504911</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.024197678763533</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.004832697504911</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3400124141.237705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004204454464390028</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.86741550818928</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9183121976965993</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.86741550818928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5983508403.601222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002387218304630144</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.14373326375247</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8588948716176829</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.14373326375247</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5877234371.634859</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004521190823841499</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.139546095491261</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9944953510828983</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.139546095491261</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5002645923.586634</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001232454943923284</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.262144123115005</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9401514795392721</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.262144123115005</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4783453605.928902</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003361815765014063</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.847019927030615</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9902389873003996</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.847019927030615</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6099163861.175219</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005121590292211901</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.203884956827609</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.290893212118679</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.203884956827609</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4981006087.876127</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001505939759995995</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.847748254988084</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.945263512186643</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.847748254988084</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3919319891.55072</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001538597909317988</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.232047138330041</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.963210675810915</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.232047138330041</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9925393067.709591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003866669666066377</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.974359531425369</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8389930840406559</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.974359531425369</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8056790142.913968</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002497138372263842</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8787016569173253</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.001395097247001</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.175105742500019</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.001395097247001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5298309046.304854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003390544699798341</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.976417593359917</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9795660454582822</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.976417593359917</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4496374725.520603</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004494209948032627</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9086120881933908</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.767159677518501</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.159588813087475</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.767159677518501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6891585996.839539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.0035383120081685</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2101365469823433</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.842967899431139</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.5990751803294683</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.842967899431139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4043054503.06848</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004372961374255346</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.702811673057816</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9490440155003022</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.702811673057816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6924572198.474341</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00180585975861652</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.016865882815152</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.869414871435366</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.016865882815152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6556694369.23994</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003138361814116324</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8599534847178953</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.0992884013934</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.187740646198058</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.0992884013934</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4993640247.965748</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004099863126486726</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.751503110220193</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8630537853324475</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.751503110220193</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8154931047.796535</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003468418250909408</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.626128084419136</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8964013625410839</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.626128084419136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6017511590.549824</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001914781764246785</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.276865935509187</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9367758488363428</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.276865935509187</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5494725412.361704</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003715569901945768</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7772975770959185</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.68508321434964</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.99011922711791</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.68508321434964</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5903771523.852628</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001850366627219273</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6953836760586712</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.403798520407031</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9227809667134559</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.403798520407031</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5191780204.740128</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003240401884971768</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.046564902226995</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9120920901284911</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.046564902226995</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3739045086.974509</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003949560765750254</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.709557219316356</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8369654364182796</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.709557219316356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5241545030.207738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005443718732733001</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.223769099778679</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9416616169585589</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.223769099778679</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5347250087.431993</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003864266871220715</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.530510943208902</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8843365282000856</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.530510943208902</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>9095740118.807673</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003841905114233968</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.597252975947496</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9104277328996742</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.597252975947496</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4100170603.432034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005065189856750197</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.866317543358476</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.386104578791923</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.163542669379056</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.386104578791923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4801666759.192189</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004074487956489435</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.399826363111731</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.020695571313552</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.399826363111731</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5352755015.038862</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00374095123798735</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.277454588123374</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9345186543270082</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.277454588123374</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5722673692.905639</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00551029403195336</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.738661573170734</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9142050794464868</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.738661573170734</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8790998493.429279</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002395263150010458</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4780542227062458</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.5943485598848</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6376035665091199</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.5943485598848</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6053816418.812392</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001137711844633229</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.723457217965174</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.002360191947625</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.723457217965174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7922553279.523105</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003697379313631201</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.745085599597644</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9320602503809415</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.745085599597644</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3714418995.182438</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003811951947875242</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.603688013799508</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.837022643417332</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.603688013799508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6074725547.907249</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001672709509254146</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.724500148760252</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.046019694925058</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.724500148760252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6165818131.442496</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001251802066658225</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.408026112287333</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9793308655981336</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.408026112287333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4035283386.410202</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004471653710838382</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.177310726123298</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9023252494498473</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.177310726123298</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5324599983.49102</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004357149171115419</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.810701109874393</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.863531967413682</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.810701109874393</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6762007228.379659</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002902304880145065</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.816818314539924</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9283555568246828</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.816818314539924</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6281928138.883005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004689538328069565</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.96800317152074</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.016596016998797</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.96800317152074</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>4809986935.010229</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003232461075201694</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9186177736110852</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.588569089252074</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.200816597885578</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.588569089252074</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6798140293.015695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002100533297044662</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.851547872083807</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9913530923153273</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.851547872083807</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>4809999387.160275</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00274277555672375</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.024815142531049</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9749591935680779</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.024815142531049</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5962203031.024603</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003254673437057559</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.576757751305219</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9907041123225926</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.576757751305219</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8010423280.061858</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005268836638325661</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.910592445658492</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9060306830227394</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.910592445658492</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8685901252.444567</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002312227394202115</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7604512442779442</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.275648483612689</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9773772044621991</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.275648483612689</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6831943011.042422</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005145268632956004</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.09622548636885764</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.525161850007945</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.2803868857654709</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.525161850007945</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5979775836.598364</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003523471699630535</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.417294253073232</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.5393598899705937</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.417294253073232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8217360599.989373</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002554610028978799</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.095110554830331</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9970308427386103</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.095110554830331</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4382600017.811941</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001025327640885866</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>18</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.1613798250580298</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.330614657142312</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.1400611648588165</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.330614657142312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5875310857.101213</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005789186517886935</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.882630064844593</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8539629085243571</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.882630064844593</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5277984872.586136</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004268249260939865</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.054762039574037</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9521845554338084</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.054762039574037</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7463872636.160374</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002730610913461064</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.013684322747914</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9594859926599291</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.013684322747914</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5157087067.824638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004297416960647859</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.795667405354842</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8503014756267594</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.795667405354842</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3899044081.039904</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00381812038839985</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.157843122785651</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.054893223721964</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.157843122785651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7839414676.264437</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001765632199701062</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.744871424357085</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9215055142827971</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.744871424357085</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6801187995.300975</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001148991611121278</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.981142261799965</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.047294417509298</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.981142261799965</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5542494849.536187</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002393125002576035</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.360652666495429</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9453141654000137</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.360652666495429</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7954308984.365585</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002544995377971992</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.02775150201654376</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.527534649484165</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.4863733233103784</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.527534649484165</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5477766082.916967</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004426442661962089</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.090362089422711</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8973752901308154</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.090362089422711</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6025960731.525135</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003860434726751723</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.057849587353139</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8881709304674413</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.057849587353139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3448662454.305102</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004196769872036186</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.776222321387915</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9064861945707336</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.776222321387915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4200720323.890377</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003602118305703614</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.358454281200835</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8586824041658623</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.358454281200835</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6588869632.44863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001543889779091874</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5747707201032329</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.919730033840206</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8785535471337823</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.919730033840206</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_55.xlsx
+++ b/output/fit_clients/fit_round_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7642799872.958624</v>
+        <v>1651254771.718293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003781557929490508</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
+        <v>0.1107932766288111</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04440424196165919</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>825627334.4752047</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5671298726.285159</v>
+        <v>2582380273.861472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005979058931880539</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1829562503111472</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03906634721162336</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1291190267.056804</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6530493718.0573</v>
+        <v>3683598940.427358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003420465190530849</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
+        <v>0.1609825502805949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02852258550718807</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1841799461.843123</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4566296907.364399</v>
+        <v>3860417960.569221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00421141974124762</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08585283101629261</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03570975617065598</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1930208993.07645</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6132951044.377092</v>
+        <v>2812929813.070315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002683877053268377</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
+        <v>0.1400093103062353</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03879325159793012</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1406464848.037212</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5923972726.996049</v>
+        <v>2989430338.762744</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001029121776876505</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.06139161269752554</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03326908842733239</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1494715135.169793</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4841120086.980321</v>
+        <v>3957400748.10358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003220766896291165</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1479256790516556</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02180119852855314</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1978700529.301643</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4282406436.787565</v>
+        <v>1611874137.78236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00407761412039181</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18</v>
+        <v>0.1235186761378126</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02421528249974708</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>805937149.2462641</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3353268620.714129</v>
+        <v>4833272530.468884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00460752980853936</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.137838980081843</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03809999979769653</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2416636351.513318</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4910950422.880442</v>
+        <v>3531039457.336332</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001488716810047628</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1302814273399192</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03422337358668543</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1765519708.501499</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7282388387.667019</v>
+        <v>3217403926.583292</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001320494158055097</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
+        <v>0.1654723547901285</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04803228361059085</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1608702001.100979</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5867679197.549543</v>
+        <v>4541202261.776737</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003776840118107401</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.07096805187845248</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02313704987285724</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2270601158.213271</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8491528306.392653</v>
+        <v>3814990008.374518</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003351736859787525</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.1689933209041925</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03022037079897899</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1907494979.518398</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7575427385.136791</v>
+        <v>1440073599.398336</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004230350014106036</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.1064135295073661</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03286432060979812</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>720036871.4880638</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7502382402.524479</v>
+        <v>2195862438.354615</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005471056421553431</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17</v>
+        <v>0.1140032298387156</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03350016505473157</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1097931277.040933</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6029236201.278457</v>
+        <v>3557957136.345226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003088662334541684</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1139946662053384</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0487513836875229</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1778978624.435351</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5900939279.810213</v>
+        <v>3655068276.813283</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001185819687546055</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1753070099330878</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02865657021785055</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1827534121.090659</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3948976926.847268</v>
+        <v>994693842.5133381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001639506241541931</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.147863293138735</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02385930224893853</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>497346949.0735103</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5102730921.314979</v>
+        <v>2633063774.226836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001036180997900283</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.09839871060909922</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03131630379438353</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1316531845.907293</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5955628980.519129</v>
+        <v>2175061753.437852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005421495905991024</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
+        <v>0.06319701678111793</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03452052546206565</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1087530895.760348</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4372228725.421472</v>
+        <v>3209061369.069673</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003652118275630717</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1229888831499972</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05007674387113911</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1604530733.422293</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6890883570.924062</v>
+        <v>1376652989.797244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001487640616651585</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1346408213750376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05409082709759207</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>688326501.498055</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7152982011.348743</v>
+        <v>2694459852.951112</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004101165335076382</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.1438313355714752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02505506723019163</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1347229982.167782</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7299235970.031439</v>
+        <v>1270905951.517166</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002650240480829471</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>12</v>
+        <v>0.1201190364131268</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02894826278795931</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>635452977.2827268</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4185096371.516347</v>
+        <v>967559436.4990484</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001235102271218158</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1000422229782165</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03879496190989783</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>483779682.2240536</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6790861821.447612</v>
+        <v>3736670298.361059</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003590530053757289</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1264347281211037</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01800243400167898</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1868335172.281098</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6574032905.854406</v>
+        <v>2781499223.505736</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004299612926343057</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>14</v>
+        <v>0.1460108018204019</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04738108190886342</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1390749603.895894</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7706553239.454012</v>
+        <v>4279458057.299049</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001270580131290385</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
+        <v>0.1169173616755497</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04397454509697612</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2139729026.034525</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6181133350.314847</v>
+        <v>2396037653.843053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003495715582641278</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>17</v>
+        <v>0.1120441104406878</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02586495688888155</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1198018909.327522</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5366514001.825867</v>
+        <v>1309727755.882006</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002937095313451432</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11</v>
+        <v>0.1047275258961338</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05251797787557256</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>654863803.4649452</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4754251083.358088</v>
+        <v>1499779749.887546</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001138536153789277</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1007730363584276</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03792196836324111</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>749889943.1367446</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5331116632.848658</v>
+        <v>2848537024.36792</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002051800527334292</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1929214600329998</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05674484882795999</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1424268520.580523</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6408084121.211304</v>
+        <v>1367323311.227936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005168639205977496</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>17</v>
+        <v>0.1135232431858286</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.026135249654242</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>683661633.101392</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5216794134.923396</v>
+        <v>1167463025.814384</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002495425059137404</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
+        <v>0.07809542756453934</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03325538284474698</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>583731494.6292132</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7347447597.403662</v>
+        <v>2978987624.768346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002433112648257018</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>16</v>
+        <v>0.1140908171658454</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02290136774489173</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1489493795.84671</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5445093914.61858</v>
+        <v>2828350983.791131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004717806189784184</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.06771131567137101</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03155850587966161</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1414175633.008362</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3400124141.237705</v>
+        <v>2117071888.434978</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004204454464390028</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1099972459808556</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02704327082058711</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1058535906.201803</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5983508403.601222</v>
+        <v>2097467099.840464</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002387218304630144</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
+        <v>0.1930721515915376</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02306899814188778</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1048733529.540747</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5877234371.634859</v>
+        <v>1137873703.74374</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004521190823841499</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
+        <v>0.1385104085923308</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04745761787177043</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>568936908.5845785</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5002645923.586634</v>
+        <v>2518702874.828215</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001232454943923284</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16</v>
+        <v>0.1507963750193225</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0382591275338424</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1259351460.727152</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4783453605.928902</v>
+        <v>3665666117.481091</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003361815765014063</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>13</v>
+        <v>0.1256351480639788</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03699123307989213</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1832833064.901515</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6099163861.175219</v>
+        <v>2155925784.841468</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005121590292211901</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.1312303397515993</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01716374029335525</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1077962975.543246</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4981006087.876127</v>
+        <v>1959879910.372061</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001505939759995995</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.08481054390750467</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02697323284825318</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>979940053.3997501</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3919319891.55072</v>
+        <v>1953428713.935967</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001538597909317988</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1765823976717759</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04987624858286342</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>976714343.0083174</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3548185696.383342</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1396791271719287</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06089150041426955</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9925393067.709591</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.003866669666066377</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1774092791.750303</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8056790142.913968</v>
+        <v>3450915107.956643</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002497138372263842</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1963197344120847</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04715015532653959</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1725457521.870047</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5298309046.304854</v>
+        <v>4490912089.292871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003390544699798341</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+        <v>0.07227447314980422</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03401541332454611</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2245456050.352243</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4496374725.520603</v>
+        <v>1515326168.627282</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004494209948032627</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1909104774365911</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03953444498776765</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>757663113.8416328</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6891585996.839539</v>
+        <v>3510689947.240261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0035383120081685</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>15</v>
+        <v>0.1263902197758833</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03471794327125358</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1755344996.989688</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4043054503.06848</v>
+        <v>1233468341.856359</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004372961374255346</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1836891217266209</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04401451220921979</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>616734216.9485126</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6924572198.474341</v>
+        <v>3890808825.889769</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00180585975861652</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>13</v>
+        <v>0.1389009606362256</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05221907479810963</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1945404475.71795</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6556694369.23994</v>
+        <v>3147107410.277304</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003138361814116324</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1982416800676273</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02344669939688879</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1573553727.306211</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4993640247.965748</v>
+        <v>3919860449.308414</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004099863126486726</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14</v>
+        <v>0.1563415201563023</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04536488834600086</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1959930282.306592</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8154931047.796535</v>
+        <v>4550289030.689251</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003468418250909408</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>17</v>
+        <v>0.1881450076769392</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02720497754081842</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2275144514.39017</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6017511590.549824</v>
+        <v>1874679899.295498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001914781764246785</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
+        <v>0.1027441733915387</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0423648640234321</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>937339936.3112966</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5494725412.361704</v>
+        <v>4434024989.618827</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003715569901945768</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1590067943474802</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02313645095981612</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2217012619.476192</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5903771523.852628</v>
+        <v>1478882680.417484</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001850366627219273</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.1299954930524589</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02753348684521411</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>739441373.1355395</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5191780204.740128</v>
+        <v>5106045199.7949</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003240401884971768</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.1048276064053645</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0325291075788717</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2553022522.387964</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3739045086.974509</v>
+        <v>3033460560.632653</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003949560765750254</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1452824917995202</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03174437668260974</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1516730354.050018</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5241545030.207738</v>
+        <v>2931676163.030611</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005443718732733001</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1777348705779219</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03247114412370805</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>19</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1465838068.296291</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5347250087.431993</v>
+        <v>2121155377.843318</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003864266871220715</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1626958266265466</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04548732447567119</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1060577765.013841</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>9095740118.807673</v>
+        <v>4526837963.146589</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003841905114233968</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.09525399424651279</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03399715316595098</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2263419020.32809</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4100170603.432034</v>
+        <v>5499198638.660322</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005065189856750197</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1709049067250442</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03431225782975251</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2749599460.496546</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4801666759.192189</v>
+        <v>5105686115.745773</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004074487956489435</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>14</v>
+        <v>0.1129814694919232</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02493565382540003</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2552843010.335969</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5352755015.038862</v>
+        <v>3685641962.579621</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00374095123798735</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1322822925719239</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03128650095018328</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1842820937.896725</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5722673692.905639</v>
+        <v>3178639313.33641</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00551029403195336</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08987702020604468</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04685518885417481</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1589319659.666171</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8790998493.429279</v>
+        <v>4370294924.370951</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002395263150010458</v>
-      </c>
-      <c r="G68" t="b">
+        <v>0.1050002947772313</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04802110245300856</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="H68" t="n">
-        <v>11</v>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2185147480.300598</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6053816418.812392</v>
+        <v>2229863782.972591</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001137711844633229</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>12</v>
+        <v>0.1554348301540329</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04471724196725564</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1114931926.055457</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7922553279.523105</v>
+        <v>2738415994.856779</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003697379313631201</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.09237867824509821</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04144748567236271</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1369207957.25252</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3714418995.182438</v>
+        <v>5617321521.82754</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003811951947875242</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1284777801103159</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02057188289423689</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2808660912.522407</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6074725547.907249</v>
+        <v>2279692400.868784</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001672709509254146</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>11</v>
+        <v>0.1087998017275499</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04408540864055979</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1139846101.524016</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6165818131.442496</v>
+        <v>2802230956.37505</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001251802066658225</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12</v>
+        <v>0.08968983769285949</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03596243366244772</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1401115492.151864</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4035283386.410202</v>
+        <v>4006754563.459922</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004471653710838382</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>12</v>
+        <v>0.1507983071319483</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02431173169708412</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2003377259.941257</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5324599983.49102</v>
+        <v>2391108632.432224</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004357149171115419</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1015658532221316</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0350809884029195</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1195554243.586866</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6762007228.379659</v>
+        <v>4410360956.856409</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002902304880145065</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>11</v>
+        <v>0.1067911637434665</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03317862176149452</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2205180480.206799</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6281928138.883005</v>
+        <v>1435239940.664799</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004689538328069565</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1349961415054346</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02722693202790251</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>717619948.3088899</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4809986935.010229</v>
+        <v>4215444357.471484</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003232461075201694</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11</v>
+        <v>0.09710258602933354</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04060114763706715</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2107722128.875604</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6798140293.015695</v>
+        <v>1194356791.709833</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002100533297044662</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>11</v>
+        <v>0.1164641186902493</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02797648807868085</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>597178376.4921683</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4809999387.160275</v>
+        <v>5552518502.108729</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00274277555672375</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>17</v>
+        <v>0.08614329185988563</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03248834645388213</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2776259327.606649</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5962203031.024603</v>
+        <v>5218715593.703516</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003254673437057559</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>11</v>
+        <v>0.1254673480518811</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02978343546118032</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2609357805.268556</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8010423280.061858</v>
+        <v>4785650192.59892</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005268836638325661</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
+        <v>0.1354356309744623</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02524624927031551</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2392825092.080174</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8685901252.444567</v>
+        <v>2485380605.806905</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002312227394202115</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1349201740119571</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04295185200015601</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1242690348.508959</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6831943011.042422</v>
+        <v>2254793312.076438</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005145268632956004</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15</v>
+        <v>0.07428319926105088</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03846978852226504</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1127396623.621538</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5979775836.598364</v>
+        <v>3578278671.247803</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003523471699630535</v>
-      </c>
-      <c r="G85" t="b">
+        <v>0.1754219121049384</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04846124144807652</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1789139459.488027</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8217360599.989373</v>
+        <v>2809675647.658995</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002554610028978799</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>15</v>
+        <v>0.1212289214140355</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02257338627616083</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1404837963.909363</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4382600017.811941</v>
+        <v>1505335794.235777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001025327640885866</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1204223008131371</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03478389747317497</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>752668030.8753357</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>5875310857.101213</v>
+        <v>3529048496.806127</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005789186517886935</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1425571553415804</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03995993348992906</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1764524330.965617</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5277984872.586136</v>
+        <v>2769383977.504046</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004268249260939865</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>12</v>
+        <v>0.1205858361254978</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03184358147507787</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1384692043.645203</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7463872636.160374</v>
+        <v>1916236967.901716</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002730610913461064</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.08523808874692404</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04706890106296921</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>958118538.7397323</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5157087067.824638</v>
+        <v>1924368756.006827</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004297416960647859</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17</v>
+        <v>0.1688836457220317</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05614485290792267</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>962184360.2285576</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3899044081.039904</v>
+        <v>2803520410.141963</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00381812038839985</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08457599036062137</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03137025106146116</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1401760211.837107</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7839414676.264437</v>
+        <v>4927694472.942845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001765632199701062</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+        <v>0.08867055851234493</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03637768024956988</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2463847176.972469</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6801187995.300975</v>
+        <v>2161578822.974526</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001148991611121278</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1403734258717974</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0326828025978339</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1080789430.725234</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5542494849.536187</v>
+        <v>2853343909.081089</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002393125002576035</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1312309736064967</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0455022415585775</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1426671964.817931</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7954308984.365585</v>
+        <v>2032611738.875633</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002544995377971992</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15</v>
+        <v>0.1018389062661068</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04564177744988614</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1016305852.800653</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5477766082.916967</v>
+        <v>4689715867.40809</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004426442661962089</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>14</v>
+        <v>0.1160713511168455</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01956974844401341</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2344858045.431506</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6025960731.525135</v>
+        <v>2951654024.536718</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003860434726751723</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>21</v>
+        <v>0.1288194989601997</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02326925582534269</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1475826993.55185</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3448662454.305102</v>
+        <v>2680560750.775252</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004196769872036186</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1025200325192163</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02542875943133212</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1340280338.091923</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4200720323.890377</v>
+        <v>3211483255.360806</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003602118305703614</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1519923499484813</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02221138109115247</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1605741635.312538</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6588869632.44863</v>
+        <v>3245104121.304906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001543889779091874</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>18</v>
+        <v>0.1691383526479238</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04558898167842031</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1622552181.975792</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_55.xlsx
+++ b/output/fit_clients/fit_round_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1651254771.718293</v>
+        <v>1704917944.978759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1107932766288111</v>
+        <v>0.08835365636613547</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04440424196165919</v>
+        <v>0.04099054746495159</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>825627334.4752047</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2582380273.861472</v>
+        <v>2509991788.517834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1829562503111472</v>
+        <v>0.1435098337796004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03906634721162336</v>
+        <v>0.0314463024968769</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1291190267.056804</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3683598940.427358</v>
+        <v>5207494307.590156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1609825502805949</v>
+        <v>0.1214504588830055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02852258550718807</v>
+        <v>0.03341235236938844</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1841799461.843123</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3860417960.569221</v>
+        <v>3612074502.67034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08585283101629261</v>
+        <v>0.08348262325338512</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03570975617065598</v>
+        <v>0.04713282043628388</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1930208993.07645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2812929813.070315</v>
+        <v>2490255352.681922</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1400093103062353</v>
+        <v>0.09210213271840327</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03879325159793012</v>
+        <v>0.05086944861392872</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1406464848.037212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2989430338.762744</v>
+        <v>2665447240.532662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06139161269752554</v>
+        <v>0.08819340606607447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03326908842733239</v>
+        <v>0.03895674594307052</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1494715135.169793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3957400748.10358</v>
+        <v>3321080138.640235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1479256790516556</v>
+        <v>0.1346695470417971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02180119852855314</v>
+        <v>0.02670080408028747</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1978700529.301643</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1611874137.78236</v>
+        <v>1673627129.612457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1235186761378126</v>
+        <v>0.1286351115443426</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02421528249974708</v>
+        <v>0.03173964168032752</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>805937149.2462641</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4833272530.468884</v>
+        <v>5531880956.078298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.137838980081843</v>
+        <v>0.216135184012092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03809999979769653</v>
+        <v>0.04391203589788352</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2416636351.513318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3531039457.336332</v>
+        <v>3548080568.873359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1302814273399192</v>
+        <v>0.1689837655177163</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03422337358668543</v>
+        <v>0.04699968650212554</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1765519708.501499</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3217403926.583292</v>
+        <v>2959280992.187716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1654723547901285</v>
+        <v>0.198513301787182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04803228361059085</v>
+        <v>0.04889081407345726</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1608702001.100979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4541202261.776737</v>
+        <v>3443421033.754769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07096805187845248</v>
+        <v>0.07603601249648695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02313704987285724</v>
+        <v>0.02552932365740787</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2270601158.213271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3814990008.374518</v>
+        <v>2570061698.222701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1689933209041925</v>
+        <v>0.1234651258328342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03022037079897899</v>
+        <v>0.03105690722526668</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1907494979.518398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1440073599.398336</v>
+        <v>1724792573.94384</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1064135295073661</v>
+        <v>0.07291169707968749</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03286432060979812</v>
+        <v>0.04522759431895228</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>720036871.4880638</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2195862438.354615</v>
+        <v>2183891503.288298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140032298387156</v>
+        <v>0.07265372442756952</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03350016505473157</v>
+        <v>0.04660046231668157</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1097931277.040933</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3557957136.345226</v>
+        <v>3966800428.065804</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1139946662053384</v>
+        <v>0.1564466238055889</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0487513836875229</v>
+        <v>0.03976931703877482</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1778978624.435351</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3655068276.813283</v>
+        <v>3734948284.69139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1753070099330878</v>
+        <v>0.1638436772970152</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02865657021785055</v>
+        <v>0.0301212998296708</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1827534121.090659</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>994693842.5133381</v>
+        <v>1239076454.780186</v>
       </c>
       <c r="F19" t="n">
-        <v>0.147863293138735</v>
+        <v>0.1328199521670322</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02385930224893853</v>
+        <v>0.01942965124390527</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>497346949.0735103</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2633063774.226836</v>
+        <v>2151752777.717255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09839871060909922</v>
+        <v>0.1312804379158228</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03131630379438353</v>
+        <v>0.02839069413387097</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1316531845.907293</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2175061753.437852</v>
+        <v>1786867058.133069</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06319701678111793</v>
+        <v>0.06335072051646626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03452052546206565</v>
+        <v>0.02969440306646762</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1087530895.760348</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3209061369.069673</v>
+        <v>2459667694.550265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1229888831499972</v>
+        <v>0.1274155145772318</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05007674387113911</v>
+        <v>0.04707482490787497</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1604530733.422293</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1376652989.797244</v>
+        <v>1465184331.389697</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1346408213750376</v>
+        <v>0.1411221305642898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05409082709759207</v>
+        <v>0.05360362408357128</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>688326501.498055</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2694459852.951112</v>
+        <v>3874563089.050197</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1438313355714752</v>
+        <v>0.1486111814172265</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02505506723019163</v>
+        <v>0.03476042966720438</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1347229982.167782</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1270905951.517166</v>
+        <v>1388700906.233893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201190364131268</v>
+        <v>0.08815391150553066</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02894826278795931</v>
+        <v>0.02873449331969406</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>635452977.2827268</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>967559436.4990484</v>
+        <v>1261859033.178092</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1000422229782165</v>
+        <v>0.09527950704158797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03879496190989783</v>
+        <v>0.02481826771554418</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>483779682.2240536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3736670298.361059</v>
+        <v>3754141323.400562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1264347281211037</v>
+        <v>0.1136010721637808</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01800243400167898</v>
+        <v>0.02268508871140807</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1868335172.281098</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2781499223.505736</v>
+        <v>2521619663.384282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1460108018204019</v>
+        <v>0.09701687728164063</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04738108190886342</v>
+        <v>0.04099162054118137</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1390749603.895894</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4279458057.299049</v>
+        <v>5138610729.069518</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1169173616755497</v>
+        <v>0.1511290904865059</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04397454509697612</v>
+        <v>0.03822315897067412</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2139729026.034525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2396037653.843053</v>
+        <v>1736934354.572431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1120441104406878</v>
+        <v>0.09459465889071178</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02586495688888155</v>
+        <v>0.02932533556664267</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1198018909.327522</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1309727755.882006</v>
+        <v>1341375163.945456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1047275258961338</v>
+        <v>0.09402346367996119</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05251797787557256</v>
+        <v>0.0439648158604455</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>654863803.4649452</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1499779749.887546</v>
+        <v>1320920891.225206</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1007730363584276</v>
+        <v>0.108914313724354</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03792196836324111</v>
+        <v>0.03032201375845388</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>749889943.1367446</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2848537024.36792</v>
+        <v>2236622813.057544</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1929214600329998</v>
+        <v>0.1319416776151714</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05674484882795999</v>
+        <v>0.04261249581870825</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1424268520.580523</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1367323311.227936</v>
+        <v>1142249465.219834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1135232431858286</v>
+        <v>0.08223223965530263</v>
       </c>
       <c r="G34" t="n">
-        <v>0.026135249654242</v>
+        <v>0.01839421998431351</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>683661633.101392</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1167463025.814384</v>
+        <v>952414936.8178732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07809542756453934</v>
+        <v>0.1074604401359437</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03325538284474698</v>
+        <v>0.03065326068763991</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>583731494.6292132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2978987624.768346</v>
+        <v>1960611232.743643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1140908171658454</v>
+        <v>0.1732468996415469</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02290136774489173</v>
+        <v>0.02253989229020304</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1489493795.84671</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2828350983.791131</v>
+        <v>1815190949.520518</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06771131567137101</v>
+        <v>0.06967229628797073</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03155850587966161</v>
+        <v>0.04198788030377726</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1414175633.008362</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2117071888.434978</v>
+        <v>1397960650.881238</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1099972459808556</v>
+        <v>0.09694396955046532</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02704327082058711</v>
+        <v>0.03086332360655773</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1058535906.201803</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2097467099.840464</v>
+        <v>1536198005.70129</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1930721515915376</v>
+        <v>0.1589484224601102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02306899814188778</v>
+        <v>0.02918007172105681</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1048733529.540747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1137873703.74374</v>
+        <v>1419443239.535364</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1385104085923308</v>
+        <v>0.1622158504602499</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04745761787177043</v>
+        <v>0.05525434034550836</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>568936908.5845785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2518702874.828215</v>
+        <v>2478082546.820865</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1507963750193225</v>
+        <v>0.1374504640094779</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0382591275338424</v>
+        <v>0.04620202341383473</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1259351460.727152</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3665666117.481091</v>
+        <v>4096603626.660268</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1256351480639788</v>
+        <v>0.09362056630570996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03699123307989213</v>
+        <v>0.04036694620215961</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1832833064.901515</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2155925784.841468</v>
+        <v>2177559586.781063</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1312303397515993</v>
+        <v>0.181662690403734</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01716374029335525</v>
+        <v>0.02398137644821464</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1077962975.543246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1959879910.372061</v>
+        <v>1734340679.969034</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08481054390750467</v>
+        <v>0.09957730505774644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02697323284825318</v>
+        <v>0.03609903300720636</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>979940053.3997501</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1953428713.935967</v>
+        <v>1984845959.264853</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1765823976717759</v>
+        <v>0.1432146507668999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04987624858286342</v>
+        <v>0.04558987742787574</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>976714343.0083174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3548185696.383342</v>
+        <v>4314359800.622178</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1396791271719287</v>
+        <v>0.1753257563258374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06089150041426955</v>
+        <v>0.04566193340119636</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1774092791.750303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3450915107.956643</v>
+        <v>3806007136.109959</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1963197344120847</v>
+        <v>0.1497309873067685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04715015532653959</v>
+        <v>0.0549025312718174</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1725457521.870047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4490912089.292871</v>
+        <v>3120510361.065039</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07227447314980422</v>
+        <v>0.08118563697443289</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03401541332454611</v>
+        <v>0.03731292378814408</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2245456050.352243</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1515326168.627282</v>
+        <v>1338170484.59673</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1909104774365911</v>
+        <v>0.1341042372972828</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03953444498776765</v>
+        <v>0.04312615297283453</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>757663113.8416328</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3510689947.240261</v>
+        <v>3839424739.507542</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1263902197758833</v>
+        <v>0.1275219004814939</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03471794327125358</v>
+        <v>0.04447881513996719</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1755344996.989688</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233468341.856359</v>
+        <v>1424560026.502751</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1836891217266209</v>
+        <v>0.1587724766899943</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04401451220921979</v>
+        <v>0.03297018876924887</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>616734216.9485126</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3890808825.889769</v>
+        <v>4866899703.026336</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1389009606362256</v>
+        <v>0.1066136308137741</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05221907479810963</v>
+        <v>0.05100367431759554</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>23</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1945404475.71795</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3147107410.277304</v>
+        <v>3279516873.722032</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1982416800676273</v>
+        <v>0.2033532239916742</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02344669939688879</v>
+        <v>0.03152822698037552</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1573553727.306211</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3919860449.308414</v>
+        <v>4563562899.366311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1563415201563023</v>
+        <v>0.1257678620168861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04536488834600086</v>
+        <v>0.04022696807140325</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1959930282.306592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4550289030.689251</v>
+        <v>3175256422.297472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1881450076769392</v>
+        <v>0.1574763745146934</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02720497754081842</v>
+        <v>0.02693749279572501</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2275144514.39017</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1874679899.295498</v>
+        <v>1403346447.385023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1027441733915387</v>
+        <v>0.1391912072838062</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0423648640234321</v>
+        <v>0.04191283428363129</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>937339936.3112966</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4434024989.618827</v>
+        <v>3645508553.34196</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1590067943474802</v>
+        <v>0.1179582994695682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02313645095981612</v>
+        <v>0.0259359410947119</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2217012619.476192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1478882680.417484</v>
+        <v>1507022714.98699</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1299954930524589</v>
+        <v>0.1488769284496708</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02753348684521411</v>
+        <v>0.03235841203154457</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>739441373.1355395</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5106045199.7949</v>
+        <v>4664500643.250901</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1048276064053645</v>
+        <v>0.09163397579205637</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0325291075788717</v>
+        <v>0.0405172065791293</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2553022522.387964</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3033460560.632653</v>
+        <v>3092983349.995126</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1452824917995202</v>
+        <v>0.1529903693522064</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03174437668260974</v>
+        <v>0.02187795493074745</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1516730354.050018</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2931676163.030611</v>
+        <v>2100976910.844946</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1777348705779219</v>
+        <v>0.1177605662936077</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03247114412370805</v>
+        <v>0.02611242936928362</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1465838068.296291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2121155377.843318</v>
+        <v>1982254845.340502</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1626958266265466</v>
+        <v>0.1301115383217186</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04548732447567119</v>
+        <v>0.04349728976076928</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1060577765.013841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4526837963.146589</v>
+        <v>5068565644.516498</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09525399424651279</v>
+        <v>0.1031970680055426</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03399715316595098</v>
+        <v>0.03037666089675393</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2263419020.32809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5499198638.660322</v>
+        <v>3447446459.331758</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1709049067250442</v>
+        <v>0.1511254530129254</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03431225782975251</v>
+        <v>0.03112091538601619</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2749599460.496546</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5105686115.745773</v>
+        <v>6008164613.39338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1129814694919232</v>
+        <v>0.1381792272540963</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02493565382540003</v>
+        <v>0.03223470596398579</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2552843010.335969</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3685641962.579621</v>
+        <v>4154389003.180209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1322822925719239</v>
+        <v>0.1046270254013419</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03128650095018328</v>
+        <v>0.03678049103330479</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1842820937.896725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3178639313.33641</v>
+        <v>3148584835.523623</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08987702020604468</v>
+        <v>0.08263857849801962</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04685518885417481</v>
+        <v>0.03272609253046928</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1589319659.666171</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4370294924.370951</v>
+        <v>5984206081.826335</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1050002947772313</v>
+        <v>0.1394879211250845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04802110245300856</v>
+        <v>0.03650173242125238</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2185147480.300598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2229863782.972591</v>
+        <v>1769367340.916532</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1554348301540329</v>
+        <v>0.1529610715101428</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04471724196725564</v>
+        <v>0.04489042351020114</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1114931926.055457</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2738415994.856779</v>
+        <v>2321650885.019125</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09237867824509821</v>
+        <v>0.06593753673391621</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04144748567236271</v>
+        <v>0.03496967162822282</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1369207957.25252</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5617321521.82754</v>
+        <v>4585689313.939212</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1284777801103159</v>
+        <v>0.1675859322716363</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02057188289423689</v>
+        <v>0.03185799036131494</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2808660912.522407</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2279692400.868784</v>
+        <v>1770891698.366912</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1087998017275499</v>
+        <v>0.0876981672913137</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04408540864055979</v>
+        <v>0.03814163224793708</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1139846101.524016</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2802230956.37505</v>
+        <v>2159723585.703635</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08968983769285949</v>
+        <v>0.08578946050827049</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03596243366244772</v>
+        <v>0.04311504280483183</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1401115492.151864</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4006754563.459922</v>
+        <v>4002286146.642555</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1507983071319483</v>
+        <v>0.1797993431548901</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02431173169708412</v>
+        <v>0.02250716440651428</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2003377259.941257</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2391108632.432224</v>
+        <v>2383746318.649574</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1015658532221316</v>
+        <v>0.1139204465510236</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0350809884029195</v>
+        <v>0.02755499077635865</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1195554243.586866</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4410360956.856409</v>
+        <v>4378650062.179947</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067911637434665</v>
+        <v>0.09832883069510902</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03317862176149452</v>
+        <v>0.02312631499010215</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2205180480.206799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1435239940.664799</v>
+        <v>2051141019.172843</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1349961415054346</v>
+        <v>0.1347677150485532</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02722693202790251</v>
+        <v>0.02132475974293097</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>717619948.3088899</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4215444357.471484</v>
+        <v>4548849540.603543</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09710258602933354</v>
+        <v>0.1132229840552019</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04060114763706715</v>
+        <v>0.04762016824227948</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2107722128.875604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1194356791.709833</v>
+        <v>1751476082.534387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1164641186902493</v>
+        <v>0.1326059753172063</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02797648807868085</v>
+        <v>0.03024123701223852</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>597178376.4921683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5552518502.108729</v>
+        <v>5041385735.887515</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08614329185988563</v>
+        <v>0.1072150300692128</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03248834645388213</v>
+        <v>0.03509519311162861</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2776259327.606649</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5218715593.703516</v>
+        <v>5189941074.842436</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1254673480518811</v>
+        <v>0.1257659866280418</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02978343546118032</v>
+        <v>0.02316814658425484</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2609357805.268556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4785650192.59892</v>
+        <v>5274160200.195718</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1354356309744623</v>
+        <v>0.2013056663823828</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02524624927031551</v>
+        <v>0.01963285741018833</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2392825092.080174</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2485380605.806905</v>
+        <v>2374144330.326127</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1349201740119571</v>
+        <v>0.1324146435804965</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04295185200015601</v>
+        <v>0.02998605301984916</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1242690348.508959</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2254793312.076438</v>
+        <v>1784666964.806724</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07428319926105088</v>
+        <v>0.07734986772215446</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03846978852226504</v>
+        <v>0.03208031464379948</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1127396623.621538</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3578278671.247803</v>
+        <v>2858025751.373641</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1754219121049384</v>
+        <v>0.1568652411186668</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04846124144807652</v>
+        <v>0.04617001908912982</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>20</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1789139459.488027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2809675647.658995</v>
+        <v>2498364444.020884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1212289214140355</v>
+        <v>0.1612103495415049</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02257338627616083</v>
+        <v>0.01999525595787207</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1404837963.909363</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1505335794.235777</v>
+        <v>1226199164.511566</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1204223008131371</v>
+        <v>0.1618139292099753</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03478389747317497</v>
+        <v>0.04408346500194054</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>752668030.8753357</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3529048496.806127</v>
+        <v>3513101682.778676</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1425571553415804</v>
+        <v>0.1488639050570094</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03995993348992906</v>
+        <v>0.02915246476935441</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>21</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1764524330.965617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2769383977.504046</v>
+        <v>3092810568.940792</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1205858361254978</v>
+        <v>0.1505692421040977</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03184358147507787</v>
+        <v>0.0341280062867169</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1384692043.645203</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916236967.901716</v>
+        <v>1568118774.449393</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08523808874692404</v>
+        <v>0.1114590713054662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04706890106296921</v>
+        <v>0.03574125272989297</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>958118538.7397323</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1924368756.006827</v>
+        <v>1789077251.143223</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1688836457220317</v>
+        <v>0.1888698937000043</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05614485290792267</v>
+        <v>0.03991838067824802</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>962184360.2285576</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2803520410.141963</v>
+        <v>2042010988.424923</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08457599036062137</v>
+        <v>0.08129453562716324</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03137025106146116</v>
+        <v>0.03412479806576822</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1401760211.837107</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4927694472.942845</v>
+        <v>3421429212.755059</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08867055851234493</v>
+        <v>0.1262831817842796</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03637768024956988</v>
+        <v>0.05301329344326539</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2463847176.972469</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2161578822.974526</v>
+        <v>1731291608.232308</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1403734258717974</v>
+        <v>0.1630152506300093</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0326828025978339</v>
+        <v>0.02886112018038801</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1080789430.725234</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2853343909.081089</v>
+        <v>2362122112.360951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1312309736064967</v>
+        <v>0.0846007793806182</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0455022415585775</v>
+        <v>0.04771667610049105</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1426671964.817931</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2032611738.875633</v>
+        <v>2288595719.862733</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1018389062661068</v>
+        <v>0.136560578731243</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04564177744988614</v>
+        <v>0.04194290789662092</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1016305852.800653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4689715867.40809</v>
+        <v>5224828536.147544</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1160713511168455</v>
+        <v>0.1336721237548213</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01956974844401341</v>
+        <v>0.02170435627802246</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>17</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2344858045.431506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2951654024.536718</v>
+        <v>2391994414.148162</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1288194989601997</v>
+        <v>0.1049495343011134</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02326925582534269</v>
+        <v>0.02155819067960537</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1475826993.55185</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2680560750.775252</v>
+        <v>3012843018.897055</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1025200325192163</v>
+        <v>0.1060190394695247</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02542875943133212</v>
+        <v>0.02616832965390718</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1340280338.091923</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3211483255.360806</v>
+        <v>3010536517.100954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1519923499484813</v>
+        <v>0.1357991968001621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02221138109115247</v>
+        <v>0.02142861900005474</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1605741635.312538</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3245104121.304906</v>
+        <v>3499330315.311686</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1691383526479238</v>
+        <v>0.1777884986965577</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04558898167842031</v>
+        <v>0.05388862140713332</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1622552181.975792</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_55.xlsx
+++ b/output/fit_clients/fit_round_55.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1704917944.978759</v>
+        <v>1743433481.694438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08835365636613547</v>
+        <v>0.1138292351689729</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04099054746495159</v>
+        <v>0.04166147440378206</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2509991788.517834</v>
+        <v>1854493005.905383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1435098337796004</v>
+        <v>0.1505433958738445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0314463024968769</v>
+        <v>0.03555187116566769</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5207494307.590156</v>
+        <v>3447452186.608281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214504588830055</v>
+        <v>0.1387274162674866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341235236938844</v>
+        <v>0.03075374066920425</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3612074502.67034</v>
+        <v>2851788530.778925</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08348262325338512</v>
+        <v>0.09627060547573148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04713282043628388</v>
+        <v>0.04511633427163857</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2490255352.681922</v>
+        <v>2534224221.549662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09210213271840327</v>
+        <v>0.1302236938770775</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05086944861392872</v>
+        <v>0.04847774735274024</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2665447240.532662</v>
+        <v>2839217475.450363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08819340606607447</v>
+        <v>0.08751090934147743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03895674594307052</v>
+        <v>0.04894789830815262</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3321080138.640235</v>
+        <v>2843214875.162432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1346695470417971</v>
+        <v>0.1454063749489826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02670080408028747</v>
+        <v>0.02566610985493045</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1673627129.612457</v>
+        <v>2010149807.736986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1286351115443426</v>
+        <v>0.1864929575494055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03173964168032752</v>
+        <v>0.02464937044202999</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5531880956.078298</v>
+        <v>5807980468.505981</v>
       </c>
       <c r="F10" t="n">
-        <v>0.216135184012092</v>
+        <v>0.1514040371528632</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04391203589788352</v>
+        <v>0.05328449003532142</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3548080568.873359</v>
+        <v>3120046845.38011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1689837655177163</v>
+        <v>0.1684672162218115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04699968650212554</v>
+        <v>0.0300823467035881</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2959280992.187716</v>
+        <v>2209888235.304039</v>
       </c>
       <c r="F12" t="n">
-        <v>0.198513301787182</v>
+        <v>0.1399123171574175</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04889081407345726</v>
+        <v>0.05012834111487947</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3443421033.754769</v>
+        <v>3462058141.491942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07603601249648695</v>
+        <v>0.09361383918458357</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02552932365740787</v>
+        <v>0.0190856241294994</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2570061698.222701</v>
+        <v>3130003166.732562</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1234651258328342</v>
+        <v>0.1586287582609011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03105690722526668</v>
+        <v>0.03727405172132672</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1724792573.94384</v>
+        <v>1262340209.260967</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07291169707968749</v>
+        <v>0.08460223190519545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04522759431895228</v>
+        <v>0.03065168791437069</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2183891503.288298</v>
+        <v>2512343292.124883</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07265372442756952</v>
+        <v>0.1116217118848772</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04660046231668157</v>
+        <v>0.0377939936125915</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3966800428.065804</v>
+        <v>4107461611.238583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1564466238055889</v>
+        <v>0.1369752536145573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03976931703877482</v>
+        <v>0.04111807476521465</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3734948284.69139</v>
+        <v>3898426744.564163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638436772970152</v>
+        <v>0.1336397548071676</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0301212998296708</v>
+        <v>0.03354644327994074</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1239076454.780186</v>
+        <v>1087318490.43177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1328199521670322</v>
+        <v>0.158511341354852</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01942965124390527</v>
+        <v>0.02004152081408141</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2151752777.717255</v>
+        <v>2700464780.286581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1312804379158228</v>
+        <v>0.1496702573138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02839069413387097</v>
+        <v>0.02877232125226109</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1786867058.133069</v>
+        <v>2122631936.588804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06335072051646626</v>
+        <v>0.08341013276700773</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02969440306646762</v>
+        <v>0.04345998374979689</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2459667694.550265</v>
+        <v>2835925400.225721</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274155145772318</v>
+        <v>0.119729721322378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04707482490787497</v>
+        <v>0.05333291669158832</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1465184331.389697</v>
+        <v>1539455796.022902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1411221305642898</v>
+        <v>0.179347162859247</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05360362408357128</v>
+        <v>0.04817077174685187</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3874563089.050197</v>
+        <v>2991704201.215946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1486111814172265</v>
+        <v>0.1036389935208429</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03476042966720438</v>
+        <v>0.02594394454165348</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1388700906.233893</v>
+        <v>1035317691.068849</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08815391150553066</v>
+        <v>0.1071455521260014</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02873449331969406</v>
+        <v>0.0190443686013445</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1261859033.178092</v>
+        <v>929563859.2565585</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09527950704158797</v>
+        <v>0.11015639254693</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02481826771554418</v>
+        <v>0.03871871808963746</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3754141323.400562</v>
+        <v>3821525260.625557</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1136010721637808</v>
+        <v>0.1181148287473046</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02268508871140807</v>
+        <v>0.01907255109034397</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2521619663.384282</v>
+        <v>2978008852.063918</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09701687728164063</v>
+        <v>0.1072412711476196</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04099162054118137</v>
+        <v>0.03841927652659624</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5138610729.069518</v>
+        <v>4832826260.642538</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1511290904865059</v>
+        <v>0.1151056837986665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03822315897067412</v>
+        <v>0.03017171601014336</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1736934354.572431</v>
+        <v>2145444315.637488</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09459465889071178</v>
+        <v>0.1114277520528364</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02932533556664267</v>
+        <v>0.03256565307103911</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1341375163.945456</v>
+        <v>1448594602.144502</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09402346367996119</v>
+        <v>0.1103235746670393</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0439648158604455</v>
+        <v>0.03826684928999089</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1320920891.225206</v>
+        <v>1435121639.049992</v>
       </c>
       <c r="F32" t="n">
-        <v>0.108914313724354</v>
+        <v>0.1206086483856116</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03032201375845388</v>
+        <v>0.03587570898797117</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2236622813.057544</v>
+        <v>2330787165.885266</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1319416776151714</v>
+        <v>0.1532029194897785</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04261249581870825</v>
+        <v>0.05601481738859757</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1142249465.219834</v>
+        <v>1450469113.630133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08223223965530263</v>
+        <v>0.1081656354370995</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01839421998431351</v>
+        <v>0.01871317805192888</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>952414936.8178732</v>
+        <v>1233195917.842821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1074604401359437</v>
+        <v>0.1174112764392616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03065326068763991</v>
+        <v>0.03547132256336439</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1960611232.743643</v>
+        <v>2932038037.092911</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1732468996415469</v>
+        <v>0.1112763710523855</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02253989229020304</v>
+        <v>0.02297099027888178</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1815190949.520518</v>
+        <v>1827304323.039645</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06967229628797073</v>
+        <v>0.1077244868078408</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04198788030377726</v>
+        <v>0.02842797806434032</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1397960650.881238</v>
+        <v>1435867255.173608</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09694396955046532</v>
+        <v>0.1036817197521555</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03086332360655773</v>
+        <v>0.0369358313966594</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1536198005.70129</v>
+        <v>2223474201.649909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1589484224601102</v>
+        <v>0.1654803560296135</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02918007172105681</v>
+        <v>0.02003659670701438</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419443239.535364</v>
+        <v>1344847752.463632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1622158504602499</v>
+        <v>0.1457940491826557</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05525434034550836</v>
+        <v>0.04771124000832504</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2478082546.820865</v>
+        <v>2775184660.033947</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1374504640094779</v>
+        <v>0.1007519481986347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04620202341383473</v>
+        <v>0.03205504333544115</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4096603626.660268</v>
+        <v>3998876241.186699</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09362056630570996</v>
+        <v>0.1072371468974478</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04036694620215961</v>
+        <v>0.03661317090087812</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2177559586.781063</v>
+        <v>2776913373.989751</v>
       </c>
       <c r="F43" t="n">
-        <v>0.181662690403734</v>
+        <v>0.20443753913265</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02398137644821464</v>
+        <v>0.02123942371744331</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1734340679.969034</v>
+        <v>2226262857.304874</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09957730505774644</v>
+        <v>0.07459534388047423</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03609903300720636</v>
+        <v>0.03380478499700664</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1984845959.264853</v>
+        <v>2411288118.88352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1432146507668999</v>
+        <v>0.1463918149275926</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04558987742787574</v>
+        <v>0.03615751612442313</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4314359800.622178</v>
+        <v>5012795831.125499</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1753257563258374</v>
+        <v>0.1340869977847007</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04566193340119636</v>
+        <v>0.0529684700791098</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3806007136.109959</v>
+        <v>4093643512.20705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1497309873067685</v>
+        <v>0.1604318434840931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0549025312718174</v>
+        <v>0.04460747099501797</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3120510361.065039</v>
+        <v>3754239477.769398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08118563697443289</v>
+        <v>0.1084906634613644</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03731292378814408</v>
+        <v>0.02558857719301339</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1338170484.59673</v>
+        <v>1927895893.97449</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1341042372972828</v>
+        <v>0.1429487543509625</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04312615297283453</v>
+        <v>0.03531776753112538</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3839424739.507542</v>
+        <v>3008591057.336925</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1275219004814939</v>
+        <v>0.1292682177161537</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04447881513996719</v>
+        <v>0.03942918277062146</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1424560026.502751</v>
+        <v>970297545.1869603</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1587724766899943</v>
+        <v>0.1964835726365794</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03297018876924887</v>
+        <v>0.0478880709170352</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4866899703.026336</v>
+        <v>4680556865.449772</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1066136308137741</v>
+        <v>0.08874323416061237</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05100367431759554</v>
+        <v>0.06173140702833797</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3279516873.722032</v>
+        <v>3421091683.8315</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2033532239916742</v>
+        <v>0.1605160745548909</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03152822698037552</v>
+        <v>0.03557304270532997</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4563562899.366311</v>
+        <v>4868614494.862662</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1257678620168861</v>
+        <v>0.1027953942096208</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04022696807140325</v>
+        <v>0.0421717313396287</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3175256422.297472</v>
+        <v>4974359403.805207</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1574763745146934</v>
+        <v>0.1993828313352923</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693749279572501</v>
+        <v>0.02292517320766288</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1403346447.385023</v>
+        <v>1850621812.649703</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1391912072838062</v>
+        <v>0.132359016873786</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04191283428363129</v>
+        <v>0.04040187880864768</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3645508553.34196</v>
+        <v>3257812123.96755</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1179582994695682</v>
+        <v>0.1144881252140367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0259359410947119</v>
+        <v>0.01946827732484642</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1507022714.98699</v>
+        <v>1763983886.94581</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1488769284496708</v>
+        <v>0.1746153129148002</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03235841203154457</v>
+        <v>0.02416667455747705</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4664500643.250901</v>
+        <v>3863451714.182613</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09163397579205637</v>
+        <v>0.09891973236610166</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0405172065791293</v>
+        <v>0.03996325239998747</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3092983349.995126</v>
+        <v>2528258957.753859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1529903693522064</v>
+        <v>0.1277558106444023</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02187795493074745</v>
+        <v>0.02488507867731203</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2100976910.844946</v>
+        <v>3265097054.386509</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1177605662936077</v>
+        <v>0.1773801959547918</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02611242936928362</v>
+        <v>0.02561793028449733</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1982254845.340502</v>
+        <v>1282405770.572213</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1301115383217186</v>
+        <v>0.1467113017401849</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04349728976076928</v>
+        <v>0.045409382398913</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5068565644.516498</v>
+        <v>5476043921.793247</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031970680055426</v>
+        <v>0.07355284466347108</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03037666089675393</v>
+        <v>0.03018480826906864</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3447446459.331758</v>
+        <v>3579878639.864853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1511254530129254</v>
+        <v>0.1178777943789271</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03112091538601619</v>
+        <v>0.02817181757369226</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6008164613.39338</v>
+        <v>4544291040.440498</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1381792272540963</v>
+        <v>0.1432217579317349</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03223470596398579</v>
+        <v>0.02436327236931088</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4154389003.180209</v>
+        <v>5226047643.6725</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1046270254013419</v>
+        <v>0.1317007930819551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03678049103330479</v>
+        <v>0.04939525778529731</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3148584835.523623</v>
+        <v>3039010602.431571</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08263857849801962</v>
+        <v>0.06525678898850597</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03272609253046928</v>
+        <v>0.03346342038664333</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5984206081.826335</v>
+        <v>6027236607.438478</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1394879211250845</v>
+        <v>0.129163124193487</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03650173242125238</v>
+        <v>0.05172071390812494</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1769367340.916532</v>
+        <v>1709036444.718488</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1529610715101428</v>
+        <v>0.1265938235825149</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04489042351020114</v>
+        <v>0.04221627636891909</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2321650885.019125</v>
+        <v>3338304130.79181</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06593753673391621</v>
+        <v>0.101589142383937</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03496967162822282</v>
+        <v>0.03598216969867799</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4585689313.939212</v>
+        <v>4209426639.823345</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1675859322716363</v>
+        <v>0.1255423040417095</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03185799036131494</v>
+        <v>0.03142078750672504</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1770891698.366912</v>
+        <v>2266388437.863573</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0876981672913137</v>
+        <v>0.09004133965438263</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03814163224793708</v>
+        <v>0.0324908343174144</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2159723585.703635</v>
+        <v>2758227766.4022</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08578946050827049</v>
+        <v>0.1059434908630419</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04311504280483183</v>
+        <v>0.03556185241163612</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4002286146.642555</v>
+        <v>3206348392.659795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1797993431548901</v>
+        <v>0.1228033353075845</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02250716440651428</v>
+        <v>0.03040630266523761</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2383746318.649574</v>
+        <v>1527919520.294436</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1139204465510236</v>
+        <v>0.1446019068525899</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02755499077635865</v>
+        <v>0.03595916482513914</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4378650062.179947</v>
+        <v>4353149982.715314</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09832883069510902</v>
+        <v>0.08363447157880731</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02312631499010215</v>
+        <v>0.02581930316535274</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2051141019.172843</v>
+        <v>2182621904.755973</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1347677150485532</v>
+        <v>0.1740862868802477</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02132475974293097</v>
+        <v>0.02894182119617191</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4548849540.603543</v>
+        <v>3887859220.826003</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1132229840552019</v>
+        <v>0.1269545647337528</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04762016824227948</v>
+        <v>0.05301670496549988</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1751476082.534387</v>
+        <v>1434654723.969039</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1326059753172063</v>
+        <v>0.1404485488044315</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03024123701223852</v>
+        <v>0.03104541347611925</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5041385735.887515</v>
+        <v>5482567094.731055</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072150300692128</v>
+        <v>0.06914112913571283</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03509519311162861</v>
+        <v>0.03571217387129158</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5189941074.842436</v>
+        <v>4639634380.526812</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1257659866280418</v>
+        <v>0.1079108934747511</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02316814658425484</v>
+        <v>0.03294089160685964</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5274160200.195718</v>
+        <v>4623999272.14677</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2013056663823828</v>
+        <v>0.1380550906650128</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01963285741018833</v>
+        <v>0.01833407761712771</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2374144330.326127</v>
+        <v>1844657323.09744</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1324146435804965</v>
+        <v>0.1014138387195287</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02998605301984916</v>
+        <v>0.04519947198193415</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1784666964.806724</v>
+        <v>2506597560.327471</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07734986772215446</v>
+        <v>0.1170119309450204</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03208031464379948</v>
+        <v>0.03561674862548907</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2858025751.373641</v>
+        <v>3410683012.508779</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1568652411186668</v>
+        <v>0.1344318826631601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04617001908912982</v>
+        <v>0.04516016533469086</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2498364444.020884</v>
+        <v>2527674964.210155</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1612103495415049</v>
+        <v>0.1373316207879065</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01999525595787207</v>
+        <v>0.02715909266632156</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1226199164.511566</v>
+        <v>1459214010.518917</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1618139292099753</v>
+        <v>0.1410171841142482</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04408346500194054</v>
+        <v>0.02703057726155016</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3513101682.778676</v>
+        <v>2253575854.867561</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1488639050570094</v>
+        <v>0.1152666370189767</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02915246476935441</v>
+        <v>0.03548438878017019</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3092810568.940792</v>
+        <v>2660321425.03619</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505692421040977</v>
+        <v>0.1026977902365436</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0341280062867169</v>
+        <v>0.03921376679147123</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1568118774.449393</v>
+        <v>2002746357.992273</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1114590713054662</v>
+        <v>0.09947207582943184</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03574125272989297</v>
+        <v>0.04218152259825304</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1789077251.143223</v>
+        <v>1561615373.527071</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1888698937000043</v>
+        <v>0.1378442425335089</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03991838067824802</v>
+        <v>0.05052878055043569</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2042010988.424923</v>
+        <v>2890248443.470463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08129453562716324</v>
+        <v>0.09646931634557979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03412479806576822</v>
+        <v>0.04552670114964514</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3421429212.755059</v>
+        <v>3781807478.070543</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1262831817842796</v>
+        <v>0.0870456509336789</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05301329344326539</v>
+        <v>0.04103279385818665</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1731291608.232308</v>
+        <v>2080080063.38837</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1630152506300093</v>
+        <v>0.1167600133716404</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02886112018038801</v>
+        <v>0.03351362926227409</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2362122112.360951</v>
+        <v>2632311142.35588</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0846007793806182</v>
+        <v>0.1118956115401972</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04771667610049105</v>
+        <v>0.0321062339711941</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2288595719.862733</v>
+        <v>1628336555.63192</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136560578731243</v>
+        <v>0.0959851446789612</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04194290789662092</v>
+        <v>0.03113152697147437</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5224828536.147544</v>
+        <v>3748625126.059237</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1336721237548213</v>
+        <v>0.1728096485843856</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02170435627802246</v>
+        <v>0.02115862840245633</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2391994414.148162</v>
+        <v>3216053019.473539</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1049495343011134</v>
+        <v>0.110465242253628</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02155819067960537</v>
+        <v>0.02687150316169485</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3012843018.897055</v>
+        <v>3014203825.978911</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1060190394695247</v>
+        <v>0.1174547727561056</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02616832965390718</v>
+        <v>0.02235534476994365</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3010536517.100954</v>
+        <v>4552231207.840247</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1357991968001621</v>
+        <v>0.1454279149547898</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02142861900005474</v>
+        <v>0.0177945742893194</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3499330315.311686</v>
+        <v>2252973573.200981</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1777884986965577</v>
+        <v>0.1607624939484766</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05388862140713332</v>
+        <v>0.04977554330458495</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_55.xlsx
+++ b/output/fit_clients/fit_round_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1743433481.694438</v>
+        <v>1840557493.505846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1138292351689729</v>
+        <v>0.08193463984464912</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04166147440378206</v>
+        <v>0.04498860698676895</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1854493005.905383</v>
+        <v>2153109936.254593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1505433958738445</v>
+        <v>0.1820747349410991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03555187116566769</v>
+        <v>0.03518513585754106</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3447452186.608281</v>
+        <v>4843511471.472944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1387274162674866</v>
+        <v>0.1510336825982889</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03075374066920425</v>
+        <v>0.02719579524923138</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>201.8259312534983</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2851788530.778925</v>
+        <v>3668138494.434054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09627060547573148</v>
+        <v>0.1043078669368495</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04511633427163857</v>
+        <v>0.04929799983739749</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2534224221.549662</v>
+        <v>2350640444.251163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1302236938770775</v>
+        <v>0.1174733918548881</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04847774735274024</v>
+        <v>0.05010677384300979</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2839217475.450363</v>
+        <v>2286845945.129455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08751090934147743</v>
+        <v>0.09359956642853384</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04894789830815262</v>
+        <v>0.03812669196749226</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2843214875.162432</v>
+        <v>3864245285.4771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1454063749489826</v>
+        <v>0.2078028702645664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02566610985493045</v>
+        <v>0.02241720175815004</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2010149807.736986</v>
+        <v>1703007219.284756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1864929575494055</v>
+        <v>0.1716713655798268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02464937044202999</v>
+        <v>0.03175906351124536</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5807980468.505981</v>
+        <v>3911485934.370727</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1514040371528632</v>
+        <v>0.2033720652178218</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05328449003532142</v>
+        <v>0.04975814820995708</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>224.3812044693218</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3120046845.38011</v>
+        <v>2662378447.630837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1684672162218115</v>
+        <v>0.1505809534297832</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0300823467035881</v>
+        <v>0.03304359993381244</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2209888235.304039</v>
+        <v>3290792766.932823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399123171574175</v>
+        <v>0.1542698114853639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05012834111487947</v>
+        <v>0.03325438801988395</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3462058141.491942</v>
+        <v>4041950182.789286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09361383918458357</v>
+        <v>0.09676871281964441</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0190856241294994</v>
+        <v>0.02831522493250951</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>201.0488637064358</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3130003166.732562</v>
+        <v>3851593855.234957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1586287582609011</v>
+        <v>0.1504200144013307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03727405172132672</v>
+        <v>0.03661230927063414</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54</v>
+      </c>
+      <c r="K14" t="n">
+        <v>199.2066220317621</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1262340209.260967</v>
+        <v>1657623462.512803</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08460223190519545</v>
+        <v>0.09305368278364445</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03065168791437069</v>
+        <v>0.03237176572076603</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2512343292.124883</v>
+        <v>2098626746.045269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1116217118848772</v>
+        <v>0.08244746439723312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0377939936125915</v>
+        <v>0.04560476302107045</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4107461611.238583</v>
+        <v>3610674310.489795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1369752536145573</v>
+        <v>0.110801624347244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04111807476521465</v>
+        <v>0.04707046585355322</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>55</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3898426744.564163</v>
+        <v>3205973735.710163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1336397548071676</v>
+        <v>0.1133563735539199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03354644327994074</v>
+        <v>0.03066210657517507</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1087318490.43177</v>
+        <v>1214147495.493603</v>
       </c>
       <c r="F19" t="n">
-        <v>0.158511341354852</v>
+        <v>0.1483716151324524</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02004152081408141</v>
+        <v>0.02093047363578058</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2700464780.286581</v>
+        <v>1853584235.934291</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496702573138</v>
+        <v>0.1343780287408655</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02877232125226109</v>
+        <v>0.03001436165552815</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2122631936.588804</v>
+        <v>2117281543.288615</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08341013276700773</v>
+        <v>0.09960170320918919</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04345998374979689</v>
+        <v>0.03711494755848527</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2835925400.225721</v>
+        <v>2590800837.869852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119729721322378</v>
+        <v>0.1056296116111765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05333291669158832</v>
+        <v>0.04291704903871</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1539455796.022902</v>
+        <v>1532609968.319834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.179347162859247</v>
+        <v>0.1501137106315362</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04817077174685187</v>
+        <v>0.03564780916807524</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2991704201.215946</v>
+        <v>3845158184.954352</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1036389935208429</v>
+        <v>0.107611076538195</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02594394454165348</v>
+        <v>0.02460770455173376</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>55</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1035317691.068849</v>
+        <v>1393618696.339357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1071455521260014</v>
+        <v>0.07796014033843664</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0190443686013445</v>
+        <v>0.02033847235512485</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>929563859.2565585</v>
+        <v>1200363082.156437</v>
       </c>
       <c r="F26" t="n">
-        <v>0.11015639254693</v>
+        <v>0.07589386737064649</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03871871808963746</v>
+        <v>0.03604936841355126</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3821525260.625557</v>
+        <v>4457839368.425046</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1181148287473046</v>
+        <v>0.1426491274499149</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01907255109034397</v>
+        <v>0.02428743960164434</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21</v>
+      </c>
+      <c r="J27" t="n">
+        <v>54</v>
+      </c>
+      <c r="K27" t="n">
+        <v>163.6963723441952</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2978008852.063918</v>
+        <v>2495300785.212945</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1072412711476196</v>
+        <v>0.1257689574987771</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03841927652659624</v>
+        <v>0.03406272754388317</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4832826260.642538</v>
+        <v>5375903383.229972</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1151056837986665</v>
+        <v>0.1482594311363706</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03017171601014336</v>
+        <v>0.04436344965371848</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="n">
+        <v>55</v>
+      </c>
+      <c r="K29" t="n">
+        <v>231.7895179437023</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2145444315.637488</v>
+        <v>2013099997.997536</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1114277520528364</v>
+        <v>0.1000050712374155</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03256565307103911</v>
+        <v>0.0399015304236502</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1448594602.144502</v>
+        <v>1239516493.843767</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103235746670393</v>
+        <v>0.08705572627242236</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03826684928999089</v>
+        <v>0.03560098408815377</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1435121639.049992</v>
+        <v>1894412357.446885</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1206086483856116</v>
+        <v>0.1120870448220579</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03587570898797117</v>
+        <v>0.03687226578999803</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2330787165.885266</v>
+        <v>2017797414.428785</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1532029194897785</v>
+        <v>0.1938354007694001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05601481738859757</v>
+        <v>0.04961807886651975</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1450469113.630133</v>
+        <v>1154902238.569442</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1081656354370995</v>
+        <v>0.1097756182753879</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01871317805192888</v>
+        <v>0.02252127448846251</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1233195917.842821</v>
+        <v>1047767151.534844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1174112764392616</v>
+        <v>0.1144900507677801</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03547132256336439</v>
+        <v>0.02764074067091077</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2932038037.092911</v>
+        <v>2463691914.240985</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112763710523855</v>
+        <v>0.117501310712083</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02297099027888178</v>
+        <v>0.02288856823395256</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1827304323.039645</v>
+        <v>1936166010.338977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1077244868078408</v>
+        <v>0.07046841573309565</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02842797806434032</v>
+        <v>0.03491404009863372</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1435867255.173608</v>
+        <v>1977671910.824328</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1036817197521555</v>
+        <v>0.08394673404144078</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0369358313966594</v>
+        <v>0.02948901378205469</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2223474201.649909</v>
+        <v>1675612113.181521</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1654803560296135</v>
+        <v>0.1395083207079274</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02003659670701438</v>
+        <v>0.02917339925126474</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1344847752.463632</v>
+        <v>1536299276.327751</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1457940491826557</v>
+        <v>0.159557935528671</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04771124000832504</v>
+        <v>0.05154840978285864</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2775184660.033947</v>
+        <v>2773779617.740296</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1007519481986347</v>
+        <v>0.1593484676824774</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03205504333544115</v>
+        <v>0.03988366915637066</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3998876241.186699</v>
+        <v>4151522143.655979</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1072371468974478</v>
+        <v>0.1072256772930236</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03661317090087812</v>
+        <v>0.02889444355944865</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>54</v>
+      </c>
+      <c r="K42" t="n">
+        <v>196.4405532932206</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2776913373.989751</v>
+        <v>2389623322.532704</v>
       </c>
       <c r="F43" t="n">
-        <v>0.20443753913265</v>
+        <v>0.1677905876333341</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02123942371744331</v>
+        <v>0.02332106580514322</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2226262857.304874</v>
+        <v>1427187408.37606</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07459534388047423</v>
+        <v>0.1008074156097011</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03380478499700664</v>
+        <v>0.02358111273646851</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2411288118.88352</v>
+        <v>1899247505.651671</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1463918149275926</v>
+        <v>0.15835467685494</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03615751612442313</v>
+        <v>0.03949959863459921</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5012795831.125499</v>
+        <v>3524267456.363983</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1340869977847007</v>
+        <v>0.1589796704508728</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0529684700791098</v>
+        <v>0.04743124813290446</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>54</v>
+      </c>
+      <c r="K46" t="n">
+        <v>166.8783142420753</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4093643512.20705</v>
+        <v>4421224621.364426</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1604318434840931</v>
+        <v>0.1805657031320929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04460747099501797</v>
+        <v>0.04781058004673855</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>55</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3754239477.769398</v>
+        <v>3765025920.612697</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1084906634613644</v>
+        <v>0.1068357554252546</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02558857719301339</v>
+        <v>0.02762057652298907</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>55</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1927895893.97449</v>
+        <v>1589326490.54773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1429487543509625</v>
+        <v>0.1489997010486693</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03531776753112538</v>
+        <v>0.03491641162568122</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3008591057.336925</v>
+        <v>3608852657.398612</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1292682177161537</v>
+        <v>0.1528996660722937</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03942918277062146</v>
+        <v>0.03394336870936929</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>55</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>970297545.1869603</v>
+        <v>1391201772.479874</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1964835726365794</v>
+        <v>0.1617398437228997</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0478880709170352</v>
+        <v>0.04901258498448694</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4680556865.449772</v>
+        <v>3851855744.433842</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08874323416061237</v>
+        <v>0.1100439895497795</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06173140702833797</v>
+        <v>0.06171999643288854</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43</v>
+      </c>
+      <c r="J52" t="n">
+        <v>55</v>
+      </c>
+      <c r="K52" t="n">
+        <v>212.120367156406</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3421091683.8315</v>
+        <v>3725356332.690339</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1605160745548909</v>
+        <v>0.1394639518915097</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03557304270532997</v>
+        <v>0.03429075334721246</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868614494.862662</v>
+        <v>3237826631.386946</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1027953942096208</v>
+        <v>0.1143336343267433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0421717313396287</v>
+        <v>0.04017408965836983</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>53</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4974359403.805207</v>
+        <v>3323551201.391603</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1993828313352923</v>
+        <v>0.1814492387723397</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02292517320766288</v>
+        <v>0.02297189559019195</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1850621812.649703</v>
+        <v>1567929588.610344</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132359016873786</v>
+        <v>0.130400223008119</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04040187880864768</v>
+        <v>0.05090021259695417</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3257812123.96755</v>
+        <v>3252719578.074545</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1144881252140367</v>
+        <v>0.1638184119768566</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01946827732484642</v>
+        <v>0.02407162675813368</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>54</v>
+      </c>
+      <c r="K57" t="n">
+        <v>134.6975892823523</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1763983886.94581</v>
+        <v>1723514377.243339</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1746153129148002</v>
+        <v>0.188158046210035</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02416667455747705</v>
+        <v>0.02752662344026532</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3863451714.182613</v>
+        <v>5094826714.421359</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09891973236610166</v>
+        <v>0.123864189124658</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03996325239998747</v>
+        <v>0.04301035758421551</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>55</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2528258957.753859</v>
+        <v>2643991068.88296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1277558106444023</v>
+        <v>0.163051435629996</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02488507867731203</v>
+        <v>0.0316998083738594</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3265097054.386509</v>
+        <v>2995020693.155722</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1773801959547918</v>
+        <v>0.1380162919987439</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02561793028449733</v>
+        <v>0.02082970990467724</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1282405770.572213</v>
+        <v>1981656040.906732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467113017401849</v>
+        <v>0.1674728773058241</v>
       </c>
       <c r="G62" t="n">
-        <v>0.045409382398913</v>
+        <v>0.04876399672077961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5476043921.793247</v>
+        <v>3779142832.824767</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07355284466347108</v>
+        <v>0.0669363211171103</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03018480826906864</v>
+        <v>0.0332230825392689</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>54</v>
+      </c>
+      <c r="K63" t="n">
+        <v>176.9060843375255</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3579878639.864853</v>
+        <v>3551201912.068306</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1178777943789271</v>
+        <v>0.1440634428833129</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02817181757369226</v>
+        <v>0.03513762816600265</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>53</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4544291040.440498</v>
+        <v>4367945857.801005</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1432217579317349</v>
+        <v>0.1119134459792933</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02436327236931088</v>
+        <v>0.02000381917438181</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>44</v>
+      </c>
+      <c r="J65" t="n">
+        <v>55</v>
+      </c>
+      <c r="K65" t="n">
+        <v>202.5835931415443</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5226047643.6725</v>
+        <v>3547595235.655074</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1317007930819551</v>
+        <v>0.1194206379451956</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04939525778529731</v>
+        <v>0.03079377485847523</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>53</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3039010602.431571</v>
+        <v>2854489659.976482</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06525678898850597</v>
+        <v>0.08606832566486469</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03346342038664333</v>
+        <v>0.03178129399592242</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6027236607.438478</v>
+        <v>5051630256.362047</v>
       </c>
       <c r="F68" t="n">
-        <v>0.129163124193487</v>
+        <v>0.1147762744793658</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05172071390812494</v>
+        <v>0.04661241953395644</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>55</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1709036444.718488</v>
+        <v>1581518030.578911</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1265938235825149</v>
+        <v>0.1201882637749887</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04221627636891909</v>
+        <v>0.04210858213123726</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2905,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3338304130.79181</v>
+        <v>3608433407.511348</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101589142383937</v>
+        <v>0.08173491196069872</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03598216969867799</v>
+        <v>0.04324360777620713</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>54</v>
+      </c>
+      <c r="K70" t="n">
+        <v>163.030418048502</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4209426639.823345</v>
+        <v>5280108468.13925</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1255423040417095</v>
+        <v>0.1639493026537215</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03142078750672504</v>
+        <v>0.02571764964275865</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>44</v>
+      </c>
+      <c r="J71" t="n">
+        <v>55</v>
+      </c>
+      <c r="K71" t="n">
+        <v>203.3916869565192</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2266388437.863573</v>
+        <v>1867921773.454565</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09004133965438263</v>
+        <v>0.08146874883035056</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0324908343174144</v>
+        <v>0.03434312942521246</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2758227766.4022</v>
+        <v>2371984818.778924</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059434908630419</v>
+        <v>0.1043755104423576</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03556185241163612</v>
+        <v>0.03369264002787332</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="n">
+        <v>80.28082413361699</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3206348392.659795</v>
+        <v>3270725106.254396</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1228033353075845</v>
+        <v>0.1492381002808817</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03040630266523761</v>
+        <v>0.02148968830912856</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="n">
+        <v>145.2300072049236</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1527919520.294436</v>
+        <v>1581106897.734656</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1446019068525899</v>
+        <v>0.1241001483922437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03595916482513914</v>
+        <v>0.02881082307299855</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4353149982.715314</v>
+        <v>4018252814.901244</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08363447157880731</v>
+        <v>0.0867673947595872</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02581930316535274</v>
+        <v>0.02426248486435214</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>55</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2182621904.755973</v>
+        <v>2075606821.103709</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1740862868802477</v>
+        <v>0.1346234166724362</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02894182119617191</v>
+        <v>0.02101282873943939</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3887859220.826003</v>
+        <v>3022556288.95334</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1269545647337528</v>
+        <v>0.1237886928467942</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05301670496549988</v>
+        <v>0.04225777153253184</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>24</v>
+      </c>
+      <c r="J78" t="n">
+        <v>54</v>
+      </c>
+      <c r="K78" t="n">
+        <v>123.4228223011057</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1434654723.969039</v>
+        <v>1818138989.014529</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1404485488044315</v>
+        <v>0.1170820077831462</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03104541347611925</v>
+        <v>0.03088700626154627</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5482567094.731055</v>
+        <v>3563162093.67928</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06914112913571283</v>
+        <v>0.09276430428716534</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03571217387129158</v>
+        <v>0.0348552701402093</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>26</v>
+      </c>
+      <c r="J80" t="n">
+        <v>55</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4639634380.526812</v>
+        <v>4002506394.919358</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1079108934747511</v>
+        <v>0.1127543527791171</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03294089160685964</v>
+        <v>0.02523085112710632</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>55</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4623999272.14677</v>
+        <v>4432756991.492073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1380550906650128</v>
+        <v>0.189184384625527</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01833407761712771</v>
+        <v>0.01823232968341227</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>55</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1844657323.09744</v>
+        <v>2330217365.655025</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1014138387195287</v>
+        <v>0.1521723954808357</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04519947198193415</v>
+        <v>0.04133824048257418</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2506597560.327471</v>
+        <v>2512142457.555141</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1170119309450204</v>
+        <v>0.1207291938896396</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03561674862548907</v>
+        <v>0.04276714489349877</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3410683012.508779</v>
+        <v>3300539919.281879</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1344318826631601</v>
+        <v>0.1598557135319532</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04516016533469086</v>
+        <v>0.05145295818937437</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2527674964.210155</v>
+        <v>1766469940.349974</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1373316207879065</v>
+        <v>0.1164643275755758</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02715909266632156</v>
+        <v>0.02430768892828405</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1459214010.518917</v>
+        <v>981227405.736354</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1410171841142482</v>
+        <v>0.1246223940074621</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02703057726155016</v>
+        <v>0.03761298502446811</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2253575854.867561</v>
+        <v>3635167793.256158</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1152666370189767</v>
+        <v>0.12547837856229</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03548438878017019</v>
+        <v>0.03976684552457476</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2660321425.03619</v>
+        <v>2790260432.337559</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1026977902365436</v>
+        <v>0.1145935465502506</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03921376679147123</v>
+        <v>0.03159816126196742</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2002746357.992273</v>
+        <v>2007678169.206706</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09947207582943184</v>
+        <v>0.08557604728252964</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04218152259825304</v>
+        <v>0.04659687288800502</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1561615373.527071</v>
+        <v>1510652008.354219</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1378442425335089</v>
+        <v>0.1546318911179034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05052878055043569</v>
+        <v>0.06148437996648063</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2890248443.470463</v>
+        <v>2945753865.924667</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09646931634557979</v>
+        <v>0.08347681464943438</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04552670114964514</v>
+        <v>0.03445255029042303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3781807478.070543</v>
+        <v>3272505107.420095</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0870456509336789</v>
+        <v>0.1377973489792825</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04103279385818665</v>
+        <v>0.04508263859516412</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>54</v>
+      </c>
+      <c r="K93" t="n">
+        <v>133.7010126415862</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2080080063.38837</v>
+        <v>2268346497.713102</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1167600133716404</v>
+        <v>0.1614287117659456</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03351362926227409</v>
+        <v>0.04124618297799629</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2632311142.35588</v>
+        <v>2679320979.150564</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1118956115401972</v>
+        <v>0.1249374818925659</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0321062339711941</v>
+        <v>0.03435385179551072</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1628336555.63192</v>
+        <v>2228071212.266927</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0959851446789612</v>
+        <v>0.108197894341089</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03113152697147437</v>
+        <v>0.04336128629630329</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3748625126.059237</v>
+        <v>4100922003.776342</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1728096485843856</v>
+        <v>0.1400255641867893</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02115862840245633</v>
+        <v>0.0280581103756959</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="n">
+        <v>54</v>
+      </c>
+      <c r="K97" t="n">
+        <v>199.6222710637277</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3216053019.473539</v>
+        <v>3316319305.158066</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110465242253628</v>
+        <v>0.1076812511830948</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02687150316169485</v>
+        <v>0.02799323340149639</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>52</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3014203825.978911</v>
+        <v>2707383527.453655</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1174547727561056</v>
+        <v>0.09797119429285078</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02235534476994365</v>
+        <v>0.03170663031191177</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4552231207.840247</v>
+        <v>4745727342.350559</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1454279149547898</v>
+        <v>0.1382713304871564</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0177945742893194</v>
+        <v>0.02407943972940549</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>54</v>
+      </c>
+      <c r="K100" t="n">
+        <v>184.2204483644412</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2252973573.200981</v>
+        <v>2672376417.415132</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1607624939484766</v>
+        <v>0.1364593838644377</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04977554330458495</v>
+        <v>0.05094856246117693</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
